--- a/doc/DB명세서.xlsx
+++ b/doc/DB명세서.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A814C2-BC88-4143-9F2D-0048B2E82A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Git\myproject\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="143">
   <si>
     <t>DATABASE</t>
   </si>
@@ -100,9 +104,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>cartNo</t>
-  </si>
-  <si>
     <t>BIGINT</t>
   </si>
   <si>
@@ -193,48 +194,30 @@
     <t>file_tbl</t>
   </si>
   <si>
-    <t>fileId</t>
-  </si>
-  <si>
     <t>파일 고유 번호</t>
   </si>
   <si>
     <t>카트 번호 (FK)</t>
   </si>
   <si>
-    <t>filePath</t>
-  </si>
-  <si>
     <t>VARCHAR(1000)</t>
   </si>
   <si>
     <t>파일 저장 경로</t>
   </si>
   <si>
-    <t>fileName</t>
-  </si>
-  <si>
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>uploadType</t>
-  </si>
-  <si>
     <t>VARCHAR(10)</t>
   </si>
   <si>
     <t>업로드 방식 (DIRECT/URL)</t>
   </si>
   <si>
-    <t>fileUrl</t>
-  </si>
-  <si>
     <t>URL 업로드일 경우 원본 URL</t>
   </si>
   <si>
-    <t>uploadStatus</t>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
   </si>
   <si>
@@ -304,18 +287,12 @@
     <t>product_master</t>
   </si>
   <si>
-    <t>prodName</t>
-  </si>
-  <si>
     <t>상품명</t>
   </si>
   <si>
     <t>가격</t>
   </si>
   <si>
-    <t>stockQty</t>
-  </si>
-  <si>
     <t>재고 수량</t>
   </si>
   <si>
@@ -328,86 +305,235 @@
     <t>product_image</t>
   </si>
   <si>
+    <t>이미지 번호</t>
+  </si>
+  <si>
+    <t>prod_no</t>
+  </si>
+  <si>
+    <t>상품 번호 (FK)</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>is_main</t>
+  </si>
+  <si>
+    <t>crt_dt</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>이미지 정렬 우선순위</t>
+  </si>
+  <si>
+    <t>product_detail</t>
+  </si>
+  <si>
+    <t>FK to product_master</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>HTML 포함 상세 설명</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>주의사항</t>
+  </si>
+  <si>
+    <t>배송 및 반품 안내</t>
+  </si>
+  <si>
+    <t>제조사, 보증 등, 없으면 null</t>
+  </si>
+  <si>
+    <t>order_sequence</t>
+  </si>
+  <si>
+    <t>seq_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>seq_no</t>
+  </si>
+  <si>
+    <t>BOOLEAN (TINYINT)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE ( 0 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crt_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upd_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_yn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>image_id</t>
-  </si>
-  <si>
-    <t>이미지 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 이미지 여부(Y/N)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipping_info</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_info </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_yn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crt_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN (TINYINT)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prod_no</t>
-  </si>
-  <si>
-    <t>상품 번호 (FK)</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>is_main</t>
-  </si>
-  <si>
-    <t>메인 이미지 여부(Y/N)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_qty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>crt_dt</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>이미지 정렬 우선순위</t>
-  </si>
-  <si>
-    <t>product_detail</t>
-  </si>
-  <si>
-    <t>FK to product_master</t>
-  </si>
-  <si>
-    <t>detailDesc</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>HTML 포함 상세 설명</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
-    <t>주의사항</t>
-  </si>
-  <si>
-    <t>shippingInfo</t>
-  </si>
-  <si>
-    <t>배송 및 반품 안내</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additionalInfo </t>
-  </si>
-  <si>
-    <t>제조사, 보증 등, 없으면 null</t>
-  </si>
-  <si>
-    <t>order_sequence</t>
-  </si>
-  <si>
-    <t>seq_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>seq_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upd_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,7 +561,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -650,13 +784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,14 +1139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="36" bestFit="1" customWidth="1"/>
@@ -1023,7 +1157,7 @@
     <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5">
+    <row r="1" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,10 +1168,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1185,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1201,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1093,178 +1227,178 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1273,10 +1407,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1285,10 +1419,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1297,10 +1431,10 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1309,10 +1443,10 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1321,10 +1455,10 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1334,18 +1468,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="33" customHeight="1">
+    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1487,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1379,202 +1513,218 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
+        <v>47</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
+      <c r="F34" s="24" t="b">
+        <v>0</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="34"/>
@@ -1584,7 +1734,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1594,7 +1744,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1604,7 +1754,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1614,7 +1764,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1624,7 +1774,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1634,7 +1784,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1644,7 +1794,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1654,7 +1804,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1664,7 +1814,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1674,12 +1824,12 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1688,7 +1838,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1714,222 +1864,222 @@
         <v>14</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J52" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="J52" ca="1">- orderNo = 20250001</f>
+        <f t="array" ref="J52">- orderNo = 20250001</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="J53" ca="1">- userId = hong123</f>
+        <f t="array" ref="J53">- userId = hong123</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J54" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="J54" ca="1">- orderDate = 2025-5-13</f>
+        <f t="array" ref="J54">- orderDate = 2025-5-13</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J55" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="J55" ca="1">- totalAmount = 15000</f>
+        <f t="array" ref="J55">- totalAmount = 15000</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J59" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1938,7 +2088,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -1964,198 +2114,198 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>6</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2164,7 +2314,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -2190,167 +2340,169 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="24" t="s">
-        <v>39</v>
+      <c r="F80" s="24">
+        <v>0</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="24"/>
       <c r="G81" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2359,15 +2511,15 @@
       <c r="F84" s="4"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2376,12 +2528,12 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
@@ -2402,55 +2554,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2458,33 +2610,33 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2492,30 +2644,30 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="26"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2525,7 +2677,7 @@
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -2552,107 +2704,107 @@
       </c>
       <c r="I96" s="27"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="30"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="28"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
@@ -2662,12 +2814,12 @@
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2677,7 +2829,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -2704,18 +2856,18 @@
       </c>
       <c r="I104" s="27"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -2723,15 +2875,15 @@
       <c r="H105" s="1"/>
       <c r="I105" s="27"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2740,7 +2892,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -2751,7 +2903,7 @@
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -2762,7 +2914,7 @@
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
@@ -2773,7 +2925,7 @@
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
@@ -2790,6 +2942,8 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B39:H39"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>